--- a/doc/ue_ds.xlsx
+++ b/doc/ue_ds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137D03C-379D-41D6-94E0-1EE188938D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29455D30-0564-4BF4-A744-44197AD64FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,329 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+  <si>
+    <t>创建时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>加载场景后设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;SetGameMode(URL);</t>
+  </si>
+  <si>
+    <t>bool UWorld::SetGameMode(const FURL&amp; InURL)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if( IsServer() &amp;&amp; !AuthorityGameMode )</t>
+  </si>
+  <si>
+    <t>AuthorityGameMode = GetGameInstance()-&gt;CreateGameModeForURL(InURL, this);</t>
+  </si>
+  <si>
+    <t>if( AuthorityGameMode != NULL )</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogWorld, Error, TEXT("Failed to spawn GameMode actor."));</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>！！！只有在服务器下面才会创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode类，在DS下面客户端没有该类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return World-&gt;SpawnActor&lt;AGameModeBase&gt;(GameClass, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>GameState类，在DS下面客户端没该类，因为他是在gameMode里面创建的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PreInitializeComponents()</t>
+  </si>
+  <si>
+    <t>FActorSpawnParameters SpawnInfo;</t>
+  </si>
+  <si>
+    <t>SpawnInfo.Instigator = GetInstigator();</t>
+  </si>
+  <si>
+    <t>SpawnInfo.ObjectFlags |= RF_Transient;</t>
+  </si>
+  <si>
+    <t>// We never want to save game states or network managers into a map</t>
+  </si>
+  <si>
+    <t>// Fallback to default GameState if none was specified.</t>
+  </si>
+  <si>
+    <t>if (GameStateClass == nullptr)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogGameMode, Warning, TEXT("No GameStateClass was specified in %s (%s)"), *GetName(), *GetClass()-&gt;GetName());</t>
+  </si>
+  <si>
+    <t>GameStateClass = AGameStateBase::StaticClass();</t>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>GameState = World-&gt;SpawnActor&lt;AGameStateBase&gt;(GameStateClass, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>World-&gt;SetGameState(GameState);</t>
+  </si>
+  <si>
+    <t>if (GameState)</t>
+  </si>
+  <si>
+    <t>GameState-&gt;AuthorityGameMode = this;</t>
+  </si>
+  <si>
+    <t>// Only need NetworkManager for servers in net games</t>
+  </si>
+  <si>
+    <t>AWorldSettings* WorldSettings = World-&gt;GetWorldSettings();</t>
+  </si>
+  <si>
+    <t>InitGameState();</t>
+  </si>
+  <si>
+    <t>void AGameModeBase::InitGameState()</t>
+  </si>
+  <si>
+    <t>GameState-&gt;GameModeClass = GetClass();</t>
+  </si>
+  <si>
+    <t>GameState-&gt;ReceivedGameModeClass();</t>
+  </si>
+  <si>
+    <t>GameState-&gt;SpectatorClass = SpectatorClass;</t>
+  </si>
+  <si>
+    <t>GameState-&gt;ReceivedSpectatorClass();</t>
+  </si>
+  <si>
+    <t>相互设置一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！肯定确保是有GameStateClass的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！创建AGameStateBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World-&gt;NetworkManager = WorldSettings-&gt;GameNetworkManagerClass ? World-&gt;SpawnActor&lt;AGameNetworkManager&gt;(WorldSettings-&gt;GameNetworkManagerClass, SpawnInfo) : nullptr;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！创建GameNetworkManager，这个干啥用的呢？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！注意，仅仅是这个地方不依赖于GameMode创建了，但是会通过协议让客户端创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！一定要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！区分于非客户端的那种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(customConstructor, Abstract, MinimalAPI, transient, config=Engine)</t>
+  </si>
+  <si>
+    <t>class UNetConnection : public UPlayer</t>
+  </si>
+  <si>
+    <t>UPROPERTY()</t>
+  </si>
+  <si>
+    <t>/** Package map between local and remote. (negotiates net serialization) */</t>
+  </si>
+  <si>
+    <t>class UPackageMap* PackageMap;</t>
+  </si>
+  <si>
+    <t>这个比较重要了，DS上面的和客户端本地的所有包？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际是UPackageMapClient类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(transient)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UPackageMapClient : public UPackageMap</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt; FNetGUIDCache &gt;</t>
+  </si>
+  <si>
+    <t>GuidCache;</t>
+  </si>
+  <si>
+    <t>Cache数据，用于查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ENGINE_API FNetGUIDCache</t>
+  </si>
+  <si>
+    <t>TMap&lt; FNetworkGUID, FNetGuidCacheObject &gt;</t>
+  </si>
+  <si>
+    <t>ObjectLookup;</t>
+  </si>
+  <si>
+    <t>TMap&lt; TWeakObjectPtr&lt; UObject &gt;, FNetworkGUID &gt;</t>
+  </si>
+  <si>
+    <t>NetGUIDLookup;</t>
+  </si>
+  <si>
+    <t>GameState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS服务器创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCameraManager</t>
+  </si>
+  <si>
+    <t>内部创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CameraActor </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UBlueprintGeneratedClass] = (Name=ThirdPersonCharacter_C)</t>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UClass] = (Name=GameplayDebuggerCategoryReplicator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameState </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS通过消息包通知客户端创建的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UNetDriver::IsServer() const</t>
+  </si>
+  <si>
+    <t>// Client connections ALWAYS set the server connection object in InitConnect()</t>
+  </si>
+  <si>
+    <t>// @todo ONLINE improve this with a bool</t>
+  </si>
+  <si>
+    <t>return ServerConnection == NULL;</t>
+  </si>
+  <si>
+    <t>判断是否为服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENetMode UNetDriver::GetNetMode() const</t>
+  </si>
+  <si>
+    <t>// Special case for PIE - forcing dedicated server behavior</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>if (World &amp;&amp; World-&gt;WorldType == EWorldType::PIE &amp;&amp; IsServer())</t>
+  </si>
+  <si>
+    <t>if ( GEngine-&gt;GetWorldContextFromWorldChecked(World).RunAsDedicated )</t>
+  </si>
+  <si>
+    <t>return NM_DedicatedServer;</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>// Normal</t>
+  </si>
+  <si>
+    <t>return (IsServer() ? (GIsClient ? NM_ListenServer : NM_DedicatedServer) : NM_Client);</t>
+  </si>
+  <si>
+    <t>判断网络类型，到底是Client还是DS还是LS，没联网就是Standalone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +362,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -68,8 +404,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -85,6 +423,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>503136</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF5B18B-8FC8-3F37-ED9C-37FB12DC28DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="9010650"/>
+          <a:ext cx="13514286" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,12 +737,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -364,14 +922,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912380BB-F6F8-4A6A-BED2-ACECF4FF2A8B}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A3" sqref="A3:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -379,12 +1070,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7C2B16-F6ED-4AF1-B804-76CE2AD243ED}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -392,14 +1141,274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2953A6-DF98-4357-943A-1E446BA908B1}">
-  <dimension ref="A1"/>
+  <dimension ref="A6:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:T51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -435,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80751ADF-C76B-4674-A97D-D1662082C7B4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/doc/ue_ds.xlsx
+++ b/doc/ue_ds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29455D30-0564-4BF4-A744-44197AD64FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07274CBF-1DB2-43B4-9642-C608EADEDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="同步的对象" sheetId="5" r:id="rId5"/>
     <sheet name="创建对象及同步" sheetId="6" r:id="rId6"/>
     <sheet name="属于同步" sheetId="7" r:id="rId7"/>
+    <sheet name="编辑器模式和非编辑器模式的不同" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -739,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -1451,4 +1452,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5521C7-5826-4FF2-9734-B5F93FB10D97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_ds.xlsx
+++ b/doc/ue_ds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07274CBF-1DB2-43B4-9642-C608EADEDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE5708-FF04-4F73-B489-9F2F752D9A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="创建对象及同步" sheetId="6" r:id="rId6"/>
     <sheet name="属于同步" sheetId="7" r:id="rId7"/>
     <sheet name="编辑器模式和非编辑器模式的不同" sheetId="8" r:id="rId8"/>
+    <sheet name="收包处理流程" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="143">
   <si>
     <t>创建时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +347,175 @@
   </si>
   <si>
     <t>判断网络类型，到底是Client还是DS还是LS，没联网就是Standalone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(transient, config=Engine)</t>
+  </si>
+  <si>
+    <t>class ONLINESUBSYSTEMUTILS_API UIpNetDriver : public UNetDriver</t>
+  </si>
+  <si>
+    <t>UCLASS(Abstract, customConstructor, transient, MinimalAPI, config=Engine)</t>
+  </si>
+  <si>
+    <t>class UNetDriver : public UObject, public FExec</t>
+  </si>
+  <si>
+    <t>基类处理，只有通用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>逻辑Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super::TickDispatch( DeltaTime );</t>
+  </si>
+  <si>
+    <t>父类的Tick，也就是UNetDriver的TickDispatch处理，里面包含所有Connection的Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (FPacketIterator It(this); It; ++It)</t>
+  </si>
+  <si>
+    <t>消息包接收+处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！里面不断的读取消息包，调用UDP的recvFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FReceivedPacketView ReceivedPacket;</t>
+  </si>
+  <si>
+    <t>FInPacketTraits&amp; ReceivedTraits = ReceivedPacket.Traits;</t>
+  </si>
+  <si>
+    <t>bool bOk = It.GetCurrentPacket(ReceivedPacket);</t>
+  </si>
+  <si>
+    <t>const TSharedRef&lt;const FInternetAddr&gt; FromAddr = ReceivedPacket.Address.ToSharedRef();</t>
+  </si>
+  <si>
+    <t>UNetConnection* Connection = nullptr;</t>
+  </si>
+  <si>
+    <t>UIpConnection* const MyServerConnection = GetServerConnection();</t>
+  </si>
+  <si>
+    <t>获得接收到的消息包，然后处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这部分服务器和客户端是通用的，只不过在客户端使用的单个ServerConnection，而服务器则是多个ClientConnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对Ddos进行了大量的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bAcceptingConnection = Notify != nullptr &amp;&amp; Notify-&gt;NotifyAcceptingConnection() == EAcceptConnection::Accept;</t>
+  </si>
+  <si>
+    <t>只有Server模式才需要Accept监听新连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bAcceptingConnection)</t>
+  </si>
+  <si>
+    <t>FPacketBufferView WorkingBuffer = It.GetWorkingBuffer();</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection = ProcessConnectionlessPacket(ReceivedPacket, WorkingBuffer);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
+  </si>
+  <si>
+    <t>真实的消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！只有服务器在握手成功后会连接Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！客户端初始化的时候就创建了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
+  </si>
+  <si>
+    <t>Packet处理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听连接和收包（Server的Accept其实也是收包握手之后了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const ProcessedPacket UnProcessedPacket = Handler-&gt;Incoming(Data, Count);</t>
+  </si>
+  <si>
+    <t>先进性握手消息包的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceivedPacket(Reader);</t>
+  </si>
+  <si>
+    <t>实际消息包的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据包头的标志判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！重点是怎么防止DDOS和安全性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
+  </si>
+  <si>
+    <t>不断的解析Packet成Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从Bunch中的BunchId和bunchName找到对应的Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel-&gt;ReceivedRawBunch( Bunch, bLocalSkipAck ); //warning: May destroy channel.</t>
+  </si>
+  <si>
+    <t>交给对应的Channel处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！不同的Channel进行的消息处理不一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +554,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,10 +583,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1458,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5521C7-5826-4FF2-9734-B5F93FB10D97}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -1466,4 +1645,268 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15274863-6244-4DDC-BA2E-7168D54FA2C4}">
+  <dimension ref="B2:T65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="44" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D62" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_ds.xlsx
+++ b/doc/ue_ds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE5708-FF04-4F73-B489-9F2F752D9A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353A801A-254C-4A27-8590-C9ECA3EC6BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="865" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="属于同步" sheetId="7" r:id="rId7"/>
     <sheet name="编辑器模式和非编辑器模式的不同" sheetId="8" r:id="rId8"/>
     <sheet name="收包处理流程" sheetId="9" r:id="rId9"/>
+    <sheet name="重连" sheetId="10" r:id="rId10"/>
+    <sheet name="相关性同步规则" sheetId="11" r:id="rId11"/>
+    <sheet name="AOI" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="200">
   <si>
     <t>创建时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +519,202 @@
   </si>
   <si>
     <t>！！！不同的Channel进行的消息处理不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogHandshake: SendRestartHandshakeRequest.</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:890][906]LogNet: NotifyAcceptingConnection accepted from: 127.0.0.1:60726</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:890][906]LogHandshake: SendRestartHandshakeRequest.</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:891][906]LogNet: NotifyAcceptingConnection accepted from: 127.0.0.1:60726</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:891][906]LogHandshake: SendRestartHandshakeRequest.</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:923][907]LogNet: NotifyAcceptingConnection accepted from: 127.0.0.1:60726</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:923][907]LogHandshake: SendRestartHandshakeRequest.</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:957][908]LogNet: NotifyAcceptingConnection accepted from: 127.0.0.1:60726</t>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:957][908]LogNet: NotifyAcceptingConnection accepted from: 127.0.0.1:60726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2022.08.01-03.54.55:957][908]LogHandshake: SendRestartHandshakeRequest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到所有需要同步的Actor，遍历所有Connection，对每一个Connection同步一下可视的Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ( int32 i=0; i &lt; ClientConnections.Num(); i++ )</t>
+  </si>
+  <si>
+    <t>if (i &gt;= NumClientsToTick)</t>
+  </si>
+  <si>
+    <t>超过每次Tick处理的最大个数，就先不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if (Connection-&gt;ViewTarget)</t>
+  </si>
+  <si>
+    <t>// Get a sorted list of actors for this connection</t>
+  </si>
+  <si>
+    <t>const int32 FinalSortedCount = ServerReplicateActors_PrioritizeActors( Connection, ConnectionViewers, ConsiderList, bCPUSaturated, PriorityList, PriorityActors );</t>
+  </si>
+  <si>
+    <t>获取当前Connection可视的所有Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行可视化排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ( FNetworkObjectInfo* ActorInfo : ConsiderList )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遍历所有ConsiderList </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AActor* Actor = ActorInfo-&gt;Actor;</t>
+  </si>
+  <si>
+    <t>UActorChannel* Channel = Connection-&gt;FindActorChannelRef( ActorInfo-&gt;WeakActor );</t>
+  </si>
+  <si>
+    <t>if (!Channel)</t>
+  </si>
+  <si>
+    <t>if (!IsActorRelevantToConnection(Actor, ConnectionViewers))</t>
+  </si>
+  <si>
+    <t>// If not relevant (and we don't have a channel), skip</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>bool AActor::IsNetRelevantFor(const AActor* RealViewer, const AActor* ViewTarget, const FVector&amp; SrcLocation) const</t>
+  </si>
+  <si>
+    <t>！！！最终调用的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bAlwaysRelevant || IsOwnedBy(ViewTarget) || IsOwnedBy(RealViewer) || this == ViewTarget || ViewTarget == GetInstigator())</t>
+  </si>
+  <si>
+    <t>else if (bNetUseOwnerRelevancy &amp;&amp; Owner)</t>
+  </si>
+  <si>
+    <t>return Owner-&gt;IsNetRelevantFor(RealViewer, ViewTarget, SrcLocation);</t>
+  </si>
+  <si>
+    <t>else if (bOnlyRelevantToOwner)</t>
+  </si>
+  <si>
+    <t>else if (RootComponent &amp;&amp; RootComponent-&gt;GetAttachParent() &amp;&amp; RootComponent-&gt;GetAttachParent()-&gt;GetOwner() &amp;&amp; (Cast&lt;USkeletalMeshComponent&gt;(RootComponent-&gt;GetAttachParent()) || (RootComponent-&gt;GetAttachParent()-&gt;GetOwner() == Owner)))</t>
+  </si>
+  <si>
+    <t>return RootComponent-&gt;GetAttachParent()-&gt;GetOwner()-&gt;IsNetRelevantFor(RealViewer, ViewTarget, SrcLocation);</t>
+  </si>
+  <si>
+    <t>else if(IsHidden() &amp;&amp; (!RootComponent || !RootComponent-&gt;IsCollisionEnabled()))</t>
+  </si>
+  <si>
+    <t>if (!RootComponent)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Warning, TEXT("Actor %s / %s has no root component in AActor::IsNetRelevantFor. (Make bAlwaysRelevant=true?)"), *GetClass()-&gt;GetName(), *GetName() );</t>
+  </si>
+  <si>
+    <t>return !GetDefault&lt;AGameNetworkManager&gt;()-&gt;bUseDistanceBasedRelevancy ||</t>
+  </si>
+  <si>
+    <t>IsWithinNetRelevancyDistance(SrcLocation);</t>
+  </si>
+  <si>
+    <t>判断bAlwaysRelevant和Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置了bNetUseOwnerRelevancy且Owner不为空，则调用Owner的判断函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置了bOnlyRelevantToOwner，则只能给Owner发，但是上面第一步判断肯定不是Owner了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载的父对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！待分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了Hiden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根组件为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了可视化举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否通过AOI来实现？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOI对距离判断有用，大量物体的时候无需遍历进行距离查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOI对相关性判断无用，例如Owner等判断规则，会导致漏对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！？？？如何解决？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！或者不解决？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 UNetDriver::ServerReplicateActors(float DeltaSeconds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的属性同步，如果不启用ReplicationGraph，会遍历场景所有物体，挨个判断属性和位置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果使用ReplicationGraph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,6 +1299,473 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0EA3A6-5F42-40DE-926B-25ACF5902FC0}">
+  <dimension ref="D4:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F72B4B2-267D-4626-AEB6-9CA72B899D62}">
+  <dimension ref="B2:S67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>168</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="P39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="P44" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P49" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R49" s="3"/>
+      <c r="S49" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P54" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P59" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P65" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="S67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8113D7D-88ED-490C-B0E2-E0F49C74CEB3}">
+  <dimension ref="B3:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912380BB-F6F8-4A6A-BED2-ACECF4FF2A8B}">
   <dimension ref="A3:Q28"/>
@@ -1651,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15274863-6244-4DDC-BA2E-7168D54FA2C4}">
   <dimension ref="B2:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
